--- a/biology/Botanique/Nephrosperma/Nephrosperma.xlsx
+++ b/biology/Botanique/Nephrosperma/Nephrosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nephrosperma est un genre de plantes de la famille des Arecaceae. C'est un genre monospécifique d'un palmier originaire des Seychelles.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des  Verschaffeltiinae  [2]
+Sous-tribu des  Verschaffeltiinae  
 Ce genre partage sa sous-tribu avec les genres suivant :  Phoenicophorium, Roscheria, Verschaffeltia  .
 </t>
         </is>
@@ -545,11 +559,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (20 avril 2019)[3], Catalogue of Life                                   (20 avril 2019)[4], World Checklist of Selected Plant Families (WCSP)  (20 avril 2019)[5] et The Plant List            (20 avril 2019)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (20 avril 2019), Catalogue of Life                                   (20 avril 2019), World Checklist of Selected Plant Families (WCSP)  (20 avril 2019) et The Plant List            (20 avril 2019) :
 Nephrosperma van-houtteanum (H.Wendl. ex Van Houtte) Balf.f. (1877)
-Selon Tropicos                                           (20 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Nephrosperma van-houtteanum (H. Wendl. ex Van Houtte) Balf. f.
 Nephrosperma vanhoutteana Balf. f.</t>
         </is>
